--- a/biology/Médecine/Nerf_digital_plantaire_propre_du_nerf_plantaire_médial/Nerf_digital_plantaire_propre_du_nerf_plantaire_médial.xlsx
+++ b/biology/Médecine/Nerf_digital_plantaire_propre_du_nerf_plantaire_médial/Nerf_digital_plantaire_propre_du_nerf_plantaire_médial.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nerf_digital_plantaire_propre_du_nerf_plantaire_m%C3%A9dial</t>
+          <t>Nerf_digital_plantaire_propre_du_nerf_plantaire_médial</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 Les nerfs digitaux plantaires propres du nerf plantaire médial sont des nerfs sensitifs du pied.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nerf_digital_plantaire_propre_du_nerf_plantaire_m%C3%A9dial</t>
+          <t>Nerf_digital_plantaire_propre_du_nerf_plantaire_médial</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les nerfs digitaux plantaires propres du nerf plantaire médial proviennent du nerf plantaire médial ou de ses branches : les nerfs digitaux plantaires communs.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nerf_digital_plantaire_propre_du_nerf_plantaire_m%C3%A9dial</t>
+          <t>Nerf_digital_plantaire_propre_du_nerf_plantaire_médial</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf digital plantaire propre issu directement du nerf plantaire médial innerve le côté médial du gros orteil.
 Les trois nerfs digitaux plantaires communs se divisent en deux nerfs digitaux plantaires propres.
